--- a/Knowledge/99. Experience.xlsx
+++ b/Knowledge/99. Experience.xlsx
@@ -1,57 +1,158 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SpringBootPrj\Knowledge\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9D78BF-9FD9-49C9-B12D-6E40A1A0B818}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9335"/>
   </bookViews>
   <sheets>
     <sheet name="Exp" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>#</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Vấn đề</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Cách xử lý</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Remark</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Kill process sử dụng port 8080 để chạy service cũng dùng port 8080</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Step 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> Tìm id của process đang sử dung port (eg: port 8080)
+netstat -ano |findstr </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t>8080</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+  TCP    0.0.0.0:8080           0.0.0.0:0              LISTENING       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t>12020</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+  TCP    [::]:8080              [::]:0                 LISTENING       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t>12020</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Step 2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> Chỉ định id của process cần kill (eg: id 12020)
+taskkill /F /PID </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t>12020</t>
+    </r>
   </si>
   <si>
     <t>Disable hiển thị stack trace trong API response</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
       <t xml:space="preserve">Thêm vào </t>
     </r>
     <r>
@@ -60,7 +161,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Meiryo UI"/>
-        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>application.properties</t>
@@ -70,7 +170,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Meiryo UI"/>
-        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> line sau:
@@ -82,194 +181,148 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Meiryo UI"/>
-        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>server.error.include-stacktrace=never</t>
     </r>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>Step 1:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> Tìm id của process đang sử dung port (eg: port 8080)
-netstat -ano |findstr </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>8080</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-  TCP    0.0.0.0:8080           0.0.0.0:0              LISTENING       </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>12020</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-  TCP    [::]:8080              [::]:0                 LISTENING       </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>12020</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>Step 2:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> Chỉ định id của process cần kill (eg: id 12020)
-taskkill /F /PID </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>12020</t>
-    </r>
-    <phoneticPr fontId="1"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Fix bug KHÔNG import đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ợc thự viện dù đã khai báo dependency</t>
+    </r>
   </si>
   <si>
     <r>
-      <t>Fix bug KHÔNG import đ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ư</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ợc thự viện dù đã khai báo dependency</t>
-    </r>
-    <phoneticPr fontId="1"/>
+      <t>Step 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">: Clear folder repository.
+Path: C:\Users\dotrongnguyen\.m2\repository
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Step 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t>: Sync l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t>i file porm
+Path: bottom-&gt;tab[build]-&gt;button[sync]</t>
+    </r>
   </si>
   <si>
-    <t>Step 1: Clear folder repository.
-Path: C:\Users\dotrongnguyen\.m2\repository
-Step 2: Sync lại file porm
-Path: bottom-&gt;tab[build]-&gt;button[sync]</t>
-    <phoneticPr fontId="1"/>
+    <t>Thêm thông tin base path trong swagger</t>
+  </si>
+  <si>
+    <r>
+      <t>Thêm host và pathProvider trong file SwaggerConfig
+Tham kh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="128"/>
+      </rPr>
+      <t>o:
+https://github.com/springfox/springfox/issues/1443#issuecomment-274540681</t>
+    </r>
+  </si>
+  <si>
+    <t>**Chú ý: thay servletContext thành null</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Meiryo UI"/>
-      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
@@ -277,17 +330,173 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Meiryo UI"/>
-      <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -296,12 +505,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -312,7 +707,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -320,55 +715,356 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -417,7 +1113,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -452,7 +1148,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -626,93 +1322,102 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="2" width="63" style="9" customWidth="1"/>
-    <col min="3" max="3" width="66.625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="44.875" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="63" style="2" customWidth="1"/>
+    <col min="3" max="3" width="66.6296296296296" style="3" customWidth="1"/>
+    <col min="4" max="4" width="44.8796296296296" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <f>ROW()-1</f>
+    <row r="2" ht="120" spans="1:3">
+      <c r="A2" s="1">
+        <f t="shared" ref="A2:A6" si="0">ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="30" spans="1:4">
+      <c r="A3" s="6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>7</v>
       </c>
+      <c r="D3" s="9"/>
     </row>
-    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <f>ROW()-1</f>
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="s">
+    <row r="4" ht="60" spans="1:3">
+      <c r="A4" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" ht="75" spans="1:4">
+      <c r="A5" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <f>ROW()-1</f>
-        <v>3</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <f>ROW()-1</f>
-        <v>4</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>